--- a/result_1/FreezingANDLeak.xlsx
+++ b/result_1/FreezingANDLeak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995A8195-22CE-404E-987E-A8912346FE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160ECF70-0D0D-4072-A03D-25E47A796422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/result_1/FreezingANDLeak.xlsx
+++ b/result_1/FreezingANDLeak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160ECF70-0D0D-4072-A03D-25E47A796422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEA583C-C278-4AF7-A186-7047C45097E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6764,7 +6764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2090" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
